--- a/data/trans_camb/P13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,67</t>
+          <t>-1,35; 2,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,57</t>
+          <t>-3,42; -0,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; -0,13</t>
+          <t>-3,14; -0,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,53</t>
+          <t>-2,38; 1,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,98</t>
+          <t>-2,93; 0,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; -0,61</t>
+          <t>-3,98; -0,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,41</t>
+          <t>-1,47; 1,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,3</t>
+          <t>-2,7; -0,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; -0,66</t>
+          <t>-3,1; -0,83</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 249,85</t>
+          <t>-51,77; 234,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -3,25</t>
+          <t>-100,0; 57,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 97,83</t>
+          <t>-100,0; 83,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,23; 106,38</t>
+          <t>-70,09; 119,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,49; 70,64</t>
+          <t>-79,7; 79,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 4,15</t>
+          <t>-100,0; 30,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 87,52</t>
+          <t>-51,55; 85,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,21; -8,65</t>
+          <t>-87,63; -16,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-99,15; -18,93</t>
+          <t>-99,07; -22,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,62</t>
+          <t>-0,27; 2,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,0</t>
+          <t>-0,75; 1,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,68</t>
+          <t>0,62; 5,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,71</t>
+          <t>-0,43; 3,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,76</t>
+          <t>-2,44; 0,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,05</t>
+          <t>-1,4; 2,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,6</t>
+          <t>0,08; 2,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,01</t>
+          <t>-1,1; 1,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,57</t>
+          <t>0,34; 3,6</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 318,56</t>
+          <t>-24,96; 365,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 260,72</t>
+          <t>-51,95; 253,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,26; 679,78</t>
+          <t>22,22; 677,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 253,01</t>
+          <t>-17,87; 225,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,91; 60,48</t>
+          <t>-71,25; 64,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 193,13</t>
+          <t>-43,72; 196,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 201,51</t>
+          <t>-1,81; 193,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,77; 81,05</t>
+          <t>-48,98; 80,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 243,89</t>
+          <t>10,26; 267,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,31</t>
+          <t>-2,12; 2,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,34</t>
+          <t>-2,85; 1,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,71</t>
+          <t>-2,86; 1,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,97</t>
+          <t>1,01; 5,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,32</t>
+          <t>-2,56; 1,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,63</t>
+          <t>-2,3; 1,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,53</t>
+          <t>0,31; 3,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,01</t>
+          <t>-1,98; 0,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,06</t>
+          <t>-1,81; 1,01</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 79,66</t>
+          <t>-42,45; 86,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,14; 45,29</t>
+          <t>-54,9; 51,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,49; 59,05</t>
+          <t>-55,4; 65,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,39; 269,88</t>
+          <t>21,75; 257,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,01; 62,42</t>
+          <t>-60,17; 63,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 75,9</t>
+          <t>-52,42; 64,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 123,85</t>
+          <t>3,92; 116,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 36,36</t>
+          <t>-44,29; 29,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 36,5</t>
+          <t>-40,7; 35,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,0</t>
+          <t>0,85; 4,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,74</t>
+          <t>0,71; 4,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,81</t>
+          <t>0,94; 5,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 7,34</t>
+          <t>1,66; 7,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,04</t>
+          <t>-0,35; 4,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,86</t>
+          <t>-1,35; 2,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,46</t>
+          <t>1,89; 5,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,1</t>
+          <t>0,83; 4,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,42</t>
+          <t>0,24; 3,27</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,5; 604,28</t>
+          <t>19,72; 658,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,89; 592,46</t>
+          <t>17,63; 694,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,91; 595,87</t>
+          <t>27,0; 731,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,91; 268,07</t>
+          <t>31,41; 286,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 189,05</t>
+          <t>-9,51; 175,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 102,77</t>
+          <t>-26,58; 105,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>48,39; 268,86</t>
+          <t>53,89; 276,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,21; 200,46</t>
+          <t>20,64; 211,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,71; 172,74</t>
+          <t>5,8; 163,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,5</t>
+          <t>-1,79; 3,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,19</t>
+          <t>-1,98; 3,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,96</t>
+          <t>0,68; 5,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,16</t>
+          <t>0,81; 8,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,55</t>
+          <t>-0,99; 5,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,7</t>
+          <t>-0,11; 5,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,94</t>
+          <t>0,15; 4,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,6</t>
+          <t>-0,5; 3,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,04</t>
+          <t>1,04; 4,82</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 182,68</t>
+          <t>-41,78; 192,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 159,29</t>
+          <t>-43,98; 172,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>12,4; 298,55</t>
+          <t>9,7; 311,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,15; 215,08</t>
+          <t>7,55; 223,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 144,63</t>
+          <t>-18,31; 167,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 164,35</t>
+          <t>-2,77; 150,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,79; 146,78</t>
+          <t>1,02; 138,07</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 104,7</t>
+          <t>-10,73; 117,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,6; 159,19</t>
+          <t>16,99; 145,8</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 6,5</t>
+          <t>-1,38; 6,67</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1,57</t>
+          <t>-4,45; 1,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,31</t>
+          <t>-0,86; 5,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,36; 14,04</t>
+          <t>6,39; 14,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,55</t>
+          <t>-3,44; 3,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,31</t>
+          <t>-1,39; 8,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,01</t>
+          <t>4,58; 9,83</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,79</t>
+          <t>-2,9; 1,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,01</t>
+          <t>0,66; 6,08</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 109,86</t>
+          <t>-14,47; 108,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-50,1; 26,63</t>
+          <t>-47,01; 24,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 88,88</t>
+          <t>-9,04; 89,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>50,27; 159,11</t>
+          <t>52,17; 152,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 39,82</t>
+          <t>-27,95; 38,53</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 90,72</t>
+          <t>-8,05; 90,23</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>43,28; 121,92</t>
+          <t>40,68; 118,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 22,73</t>
+          <t>-27,82; 18,56</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>5,12; 73,46</t>
+          <t>6,91; 75,99</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,63</t>
+          <t>0,52; 2,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,14</t>
+          <t>-0,66; 1,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,07</t>
+          <t>1,09; 3,07</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,74</t>
+          <t>3,13; 5,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,72</t>
+          <t>-0,38; 1,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,52</t>
+          <t>1,23; 3,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,81</t>
+          <t>2,22; 3,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,24; 1,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,03</t>
+          <t>1,53; 3,01</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>15,65; 97,16</t>
+          <t>13,47; 89,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 40,33</t>
+          <t>-18,31; 43,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>30,69; 113,2</t>
+          <t>29,14; 110,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>60,87; 133,53</t>
+          <t>58,54; 131,86</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 39,7</t>
+          <t>-6,92; 42,43</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>22,45; 81,86</t>
+          <t>22,72; 80,43</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>50,02; 104,39</t>
+          <t>51,51; 108,9</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 33,43</t>
+          <t>-5,57; 32,7</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>36,53; 82,88</t>
+          <t>35,49; 83,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,34</t>
+          <t>-1,67; 2,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -0,59</t>
+          <t>-3,63; -0,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; -0,08</t>
+          <t>-3,33; -0,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,67</t>
+          <t>-2,54; 1,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,87</t>
+          <t>-2,88; 0,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; -0,59</t>
+          <t>-3,84; -0,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,4</t>
+          <t>-1,48; 1,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,38</t>
+          <t>-2,67; -0,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,83</t>
+          <t>-3,15; -0,77</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 234,02</t>
+          <t>-56,88; 212,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,62</t>
+          <t>-100,0; 16,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 83,07</t>
+          <t>-100,0; 103,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 119,36</t>
+          <t>-73,11; 125,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,7; 79,19</t>
+          <t>-77,46; 65,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 30,58</t>
+          <t>-100,0; 20,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,55; 85,73</t>
+          <t>-51,72; 89,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,63; -16,64</t>
+          <t>-86,98; -3,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-99,07; -22,44</t>
+          <t>-99,08; -30,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,76</t>
+          <t>-0,49; 2,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,84</t>
+          <t>-0,72; 2,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,61</t>
+          <t>0,65; 5,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,68</t>
+          <t>-0,41; 3,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,85</t>
+          <t>-2,6; 0,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 2,96</t>
+          <t>-1,27; 2,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,5</t>
+          <t>0,11; 2,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,05</t>
+          <t>-1,01; 0,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,6</t>
+          <t>0,32; 3,5</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 365,36</t>
+          <t>-29,53; 341,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,95; 253,41</t>
+          <t>-45,59; 306,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,22; 677,88</t>
+          <t>19,24; 819,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 225,24</t>
+          <t>-16,49; 260,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,25; 64,75</t>
+          <t>-76,48; 70,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 196,4</t>
+          <t>-41,7; 196,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 193,59</t>
+          <t>0,28; 196,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 80,58</t>
+          <t>-46,99; 73,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,26; 267,32</t>
+          <t>11,54; 246,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,42</t>
+          <t>-1,98; 2,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 1,43</t>
+          <t>-2,66; 1,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,84</t>
+          <t>-2,89; 1,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,66</t>
+          <t>0,88; 5,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,43</t>
+          <t>-2,29; 1,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,41</t>
+          <t>-2,17; 1,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,38</t>
+          <t>0,15; 3,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,85</t>
+          <t>-2,02; 0,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,01</t>
+          <t>-1,89; 1,06</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,45; 86,51</t>
+          <t>-40,76; 80,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,9; 51,7</t>
+          <t>-53,78; 56,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 65,75</t>
+          <t>-57,37; 63,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,75; 257,53</t>
+          <t>19,99; 252,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,17; 63,11</t>
+          <t>-54,9; 67,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,42; 64,97</t>
+          <t>-51,89; 66,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 116,07</t>
+          <t>2,64; 115,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 29,95</t>
+          <t>-45,87; 31,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 35,67</t>
+          <t>-41,51; 39,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,92</t>
+          <t>0,83; 5,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,76</t>
+          <t>0,87; 4,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,08</t>
+          <t>0,85; 4,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,62</t>
+          <t>1,47; 7,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 4,77</t>
+          <t>-0,46; 4,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,85</t>
+          <t>-1,46; 2,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,38</t>
+          <t>1,81; 5,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,1</t>
+          <t>0,87; 4,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,27</t>
+          <t>0,26; 3,28</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,72; 658,28</t>
+          <t>14,33; 715,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,63; 694,57</t>
+          <t>20,65; 689,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,0; 731,2</t>
+          <t>20,97; 703,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31,41; 286,73</t>
+          <t>21,94; 250,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 175,58</t>
+          <t>-10,53; 176,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 105,94</t>
+          <t>-26,36; 94,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>53,89; 276,2</t>
+          <t>49,42; 271,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,64; 211,29</t>
+          <t>20,79; 203,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 163,48</t>
+          <t>4,62; 164,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,36</t>
+          <t>-1,63; 3,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,33</t>
+          <t>-1,96; 3,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,97</t>
+          <t>0,74; 6,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,09</t>
+          <t>0,89; 8,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 5,78</t>
+          <t>-1,06; 5,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,61</t>
+          <t>-0,02; 5,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,81</t>
+          <t>0,51; 4,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,83</t>
+          <t>-0,54; 3,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,82</t>
+          <t>1,14; 5,04</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,78; 192,99</t>
+          <t>-39,2; 166,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,98; 172,2</t>
+          <t>-42,75; 174,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,7; 311,32</t>
+          <t>8,85; 291,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,55; 223,4</t>
+          <t>8,92; 201,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 167,78</t>
+          <t>-16,63; 147,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 150,58</t>
+          <t>-1,49; 154,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,02; 138,07</t>
+          <t>9,29; 143,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 117,67</t>
+          <t>-10,67; 110,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,99; 145,8</t>
+          <t>19,35; 157,22</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,67</t>
+          <t>-0,71; 6,53</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 1,43</t>
+          <t>-4,72; 1,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 5,48</t>
+          <t>-0,74; 5,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,39; 14,11</t>
+          <t>6,6; 14,48</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,39</t>
+          <t>-3,5; 3,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 8,16</t>
+          <t>-1,14; 8,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,83</t>
+          <t>4,49; 9,9</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,53</t>
+          <t>-3,23; 1,51</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,08</t>
+          <t>0,91; 6,13</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 108,23</t>
+          <t>-8,46; 98,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-47,01; 24,48</t>
+          <t>-50,01; 21,99</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 89,38</t>
+          <t>-9,49; 87,53</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>52,17; 152,56</t>
+          <t>53,16; 159,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 38,53</t>
+          <t>-28,25; 40,74</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 90,23</t>
+          <t>-6,17; 91,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>40,68; 118,44</t>
+          <t>40,95; 123,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 18,56</t>
+          <t>-30,92; 17,85</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>6,91; 75,99</t>
+          <t>9,64; 75,08</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,47</t>
+          <t>0,44; 2,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,21</t>
+          <t>-0,61; 1,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,07</t>
+          <t>1,09; 3,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,65</t>
+          <t>3,24; 5,74</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,78</t>
+          <t>-0,48; 1,74</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,48</t>
+          <t>1,24; 3,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,94</t>
+          <t>2,16; 3,76</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,2</t>
+          <t>-0,22; 1,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,01</t>
+          <t>1,61; 3,01</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>13,47; 89,0</t>
+          <t>11,73; 87,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 43,99</t>
+          <t>-17,68; 41,12</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>29,14; 110,52</t>
+          <t>29,9; 110,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>58,54; 131,86</t>
+          <t>57,19; 128,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 42,43</t>
+          <t>-8,71; 40,31</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>22,72; 80,43</t>
+          <t>23,13; 79,6</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>51,51; 108,9</t>
+          <t>48,08; 100,33</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 32,7</t>
+          <t>-5,17; 31,82</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>35,49; 83,14</t>
+          <t>36,63; 81,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,34</t>
+          <t>-1,52; 2,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; -0,65</t>
+          <t>-3,45; -0,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; -0,15</t>
+          <t>-3,17; -0,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,58</t>
+          <t>-2,49; 1,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,79</t>
+          <t>-2,97; 0,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; -0,78</t>
+          <t>-3,93; -0,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,4</t>
+          <t>-1,28; 1,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; -0,28</t>
+          <t>-2,55; -0,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; -0,77</t>
+          <t>-2,93; -0,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,88; 212,85</t>
+          <t>-55,11; 249,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 16,92</t>
+          <t>-100,0; -3,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 103,86</t>
+          <t>-100,0; 97,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,11; 125,57</t>
+          <t>-73,23; 106,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,46; 65,72</t>
+          <t>-80,49; 70,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 20,22</t>
+          <t>-100,0; 4,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,72; 89,05</t>
+          <t>-45,11; 87,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,98; -3,32</t>
+          <t>-86,21; -8,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-99,08; -30,16</t>
+          <t>-99,15; -18,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,53</t>
+          <t>-0,25; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,09</t>
+          <t>-0,66; 2,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,73</t>
+          <t>0,63; 5,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,76</t>
+          <t>-0,39; 3,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,83</t>
+          <t>-2,45; 0,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,85</t>
+          <t>-1,33; 3,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,63</t>
+          <t>0,16; 2,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,92</t>
+          <t>-1,1; 1,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,5</t>
+          <t>0,3; 3,57</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 341,14</t>
+          <t>-26,04; 318,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,59; 306,34</t>
+          <t>-47,34; 260,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,24; 819,41</t>
+          <t>20,26; 679,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 260,53</t>
+          <t>-13,35; 253,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,48; 70,88</t>
+          <t>-74,91; 60,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 196,2</t>
+          <t>-44,22; 193,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 196,45</t>
+          <t>5,2; 201,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 73,46</t>
+          <t>-49,77; 81,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,54; 246,29</t>
+          <t>7,37; 243,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,31</t>
+          <t>-2,19; 2,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,65</t>
+          <t>-3,13; 1,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,83</t>
+          <t>-3,17; 1,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,65</t>
+          <t>1,04; 5,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,49</t>
+          <t>-2,28; 1,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,43</t>
+          <t>-2,1; 1,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,33</t>
+          <t>0,15; 3,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,9</t>
+          <t>-1,93; 1,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,06</t>
+          <t>-1,84; 1,06</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,76; 80,64</t>
+          <t>-41,0; 79,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 56,29</t>
+          <t>-58,14; 45,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,37; 63,42</t>
+          <t>-57,49; 59,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,99; 252,97</t>
+          <t>23,39; 269,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,9; 67,36</t>
+          <t>-56,01; 62,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,89; 66,65</t>
+          <t>-49,74; 75,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 115,83</t>
+          <t>3,44; 123,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,87; 31,9</t>
+          <t>-45,46; 36,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 39,13</t>
+          <t>-42,27; 36,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,15</t>
+          <t>0,87; 5,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,69</t>
+          <t>0,9; 4,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,98</t>
+          <t>0,8; 4,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,54</t>
+          <t>1,46; 7,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,96</t>
+          <t>-0,11; 5,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,68</t>
+          <t>-1,58; 2,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,47</t>
+          <t>1,8; 5,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,19</t>
+          <t>0,79; 4,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,28</t>
+          <t>0,21; 3,42</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,33; 715,8</t>
+          <t>18,5; 604,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,65; 689,2</t>
+          <t>27,89; 592,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,97; 703,89</t>
+          <t>20,91; 595,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,94; 250,24</t>
+          <t>26,91; 268,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 176,35</t>
+          <t>-4,03; 189,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 94,68</t>
+          <t>-29,33; 102,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,42; 271,67</t>
+          <t>48,39; 268,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,79; 203,82</t>
+          <t>22,21; 200,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,62; 164,08</t>
+          <t>3,71; 172,74</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,45</t>
+          <t>-1,54; 3,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,32</t>
+          <t>-1,69; 3,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,07</t>
+          <t>0,84; 5,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,06</t>
+          <t>0,84; 8,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,33</t>
+          <t>-1,15; 5,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 5,6</t>
+          <t>-0,24; 5,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,89</t>
+          <t>0,35; 4,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,57</t>
+          <t>-0,85; 3,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,14; 5,04</t>
+          <t>1,01; 5,04</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,2; 166,52</t>
+          <t>-35,0; 182,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 174,37</t>
+          <t>-38,94; 159,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8,85; 291,79</t>
+          <t>12,4; 298,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,92; 201,65</t>
+          <t>9,15; 215,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 147,86</t>
+          <t>-17,63; 144,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 154,97</t>
+          <t>-3,44; 164,35</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,29; 143,55</t>
+          <t>5,79; 146,78</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 110,96</t>
+          <t>-17,96; 104,7</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>19,35; 157,22</t>
+          <t>17,6; 159,19</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,53</t>
+          <t>-0,72; 6,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,35</t>
+          <t>-4,76; 1,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,27</t>
+          <t>-0,82; 5,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,6; 14,48</t>
+          <t>6,36; 14,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,62</t>
+          <t>-3,34; 3,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,26</t>
+          <t>-0,89; 8,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,9</t>
+          <t>4,63; 10,01</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,51</t>
+          <t>-2,78; 1,79</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,91; 6,13</t>
+          <t>0,35; 6,01</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 98,97</t>
+          <t>-7,53; 109,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 21,99</t>
+          <t>-50,1; 26,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 87,53</t>
+          <t>-9,81; 88,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>53,16; 159,66</t>
+          <t>50,27; 159,11</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 40,74</t>
+          <t>-27,3; 39,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 91,71</t>
+          <t>-3,94; 90,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>40,95; 123,97</t>
+          <t>43,28; 121,92</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 17,85</t>
+          <t>-26,01; 22,73</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>9,64; 75,08</t>
+          <t>5,12; 73,46</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,43</t>
+          <t>0,6; 2,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1991,37 +1991,37 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,05</t>
+          <t>1,1; 3,07</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,74</t>
+          <t>3,3; 5,74</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,74</t>
+          <t>-0,52; 1,72</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,42</t>
+          <t>1,2; 3,52</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,76</t>
+          <t>2,16; 3,81</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 1,18</t>
+          <t>-0,18; 1,25</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,01</t>
+          <t>1,6; 3,03</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>11,73; 87,21</t>
+          <t>15,65; 97,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 41,12</t>
+          <t>-17,34; 40,33</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>29,9; 110,88</t>
+          <t>30,69; 113,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>57,19; 128,34</t>
+          <t>60,87; 133,53</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 40,31</t>
+          <t>-9,66; 39,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>23,13; 79,6</t>
+          <t>22,45; 81,86</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>48,08; 100,33</t>
+          <t>50,02; 104,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 31,82</t>
+          <t>-4,3; 33,43</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>36,63; 81,6</t>
+          <t>36,53; 82,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,86</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; -0,13</t>
+          <t>-3,18; -0,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; -0,61</t>
+          <t>-3,93; -0,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; -0,66</t>
+          <t>-2,93; -0,7</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-77,95%</t>
+          <t>-78,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-84,09%</t>
+          <t>-85,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-81,29%</t>
+          <t>-82,01%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 97,83</t>
+          <t>-100,0; 99,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 4,15</t>
+          <t>-100,0; -3,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-99,15; -18,93</t>
+          <t>-99,1; -17,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,62</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,68</t>
+          <t>0,63; 5,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,05</t>
+          <t>-1,63; 2,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,57</t>
+          <t>0,13; 3,46</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>218,32%</t>
+          <t>220,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>90,74%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,26; 679,78</t>
+          <t>18,7; 712,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 193,13</t>
+          <t>-53,82; 168,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 243,89</t>
+          <t>-0,9; 245,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,71</t>
+          <t>-3,18; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,63</t>
+          <t>-2,08; 1,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,06</t>
+          <t>-1,86; 1,03</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,19%</t>
+          <t>-12,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,77%</t>
+          <t>-9,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>-10,97%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,49; 59,05</t>
+          <t>-59,23; 55,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 75,9</t>
+          <t>-49,57; 75,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 36,5</t>
+          <t>-42,17; 35,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,81</t>
+          <t>-0,62; 3,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,86</t>
+          <t>-1,94; 2,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,42</t>
+          <t>-0,97; 2,68</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>192,12%</t>
+          <t>124,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>65,0%</t>
+          <t>40,74%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,91; 595,87</t>
+          <t>-24,97; 438,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 102,77</t>
+          <t>-34,24; 94,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,71; 172,74</t>
+          <t>-25,66; 128,68</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>3,04</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,96</t>
+          <t>0,81; 5,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,7</t>
+          <t>-0,26; 5,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,04</t>
+          <t>0,98; 5,0</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>101,55%</t>
+          <t>100,15%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>53,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>71,75%</t>
+          <t>70,54%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>12,4; 298,55</t>
+          <t>10,96; 291,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 164,35</t>
+          <t>-4,16; 160,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>17,6; 159,19</t>
+          <t>16,39; 157,55</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10,31</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>-1,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 6,5</t>
+          <t>-2,53; 6,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1,57</t>
+          <t>-5,8; 1,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,31</t>
+          <t>-3,05; 3,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,36; 14,04</t>
+          <t>2,53; 12,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,55</t>
+          <t>-6,43; 1,29</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,31</t>
+          <t>-9,44; 0,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,01</t>
+          <t>1,77; 8,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,79</t>
+          <t>-4,89; 0,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,01</t>
+          <t>-5,25; 1,6</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-19,97%</t>
+          <t>-34,69%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-28,47%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>-35,03%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>75,33%</t>
+          <t>67,28%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-6,86%</t>
+          <t>-31,09%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>-18,06%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 109,86</t>
+          <t>-33,8; 145,46</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-50,1; 26,63</t>
+          <t>-69,05; 34,7</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 88,88</t>
+          <t>-35,26; 93,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>50,27; 159,11</t>
+          <t>23,13; 183,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 39,82</t>
+          <t>-59,73; 19,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 90,72</t>
+          <t>-77,51; 11,5</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>43,28; 121,92</t>
+          <t>21,18; 139,9</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 22,73</t>
+          <t>-55,72; 7,14</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>5,12; 73,46</t>
+          <t>-56,79; 23,78</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>12,31</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>8,88</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,63</t>
+          <t>-2,55; 9,73</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,14</t>
+          <t>-6,81; 4,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,07</t>
+          <t>-1,46; 8,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,74</t>
+          <t>6,54; 18,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,72</t>
+          <t>-3,48; 8,14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,52</t>
+          <t>6,93; 17,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,81</t>
+          <t>4,42; 13,45</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-2,66; 5,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,03</t>
+          <t>4,98; 12,05</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>-9,42%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>66,09%</t>
+          <t>38,04%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>74,35%</t>
+          <t>76,94%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>75,41%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-21,21; 132,37</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-50,1; 66,73</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-10,91; 138,71</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>37,88; 183,42</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-23,27; 79,86</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>40,42; 172,44</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>31,26; 138,33</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-19,29; 53,7</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>32,64; 123,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 2,63</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 1,14</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 2,65</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 5,74</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 1,72</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 3,18</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 3,81</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 1,25</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 2,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>45,68%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>52,61%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>92,29%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>13,99%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>40,97%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>74,35%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>45,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>15,65; 97,16</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-17,34; 40,33</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>30,69; 113,2</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>11,13; 98,63</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>60,87; 133,53</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-9,66; 39,7</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>22,45; 81,86</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 72,29</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>50,02; 104,39</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-4,3; 33,43</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>36,53; 82,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>20,62; 70,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P13_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,67</t>
+          <t>-1,58; 2,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,57</t>
+          <t>-3,77; -0,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,15</t>
+          <t>-3,33; -0,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,53</t>
+          <t>-2,56; 1,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,98</t>
+          <t>-3,0; 0,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; -0,71</t>
+          <t>-3,94; -0,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,41</t>
+          <t>-1,38; 1,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,3</t>
+          <t>-2,73; -0,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; -0,7</t>
+          <t>-3,08; -0,92</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 249,85</t>
+          <t>-56,18; 237,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -3,25</t>
+          <t>-100,0; -5,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 99,8</t>
+          <t>-100,0; 29,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,23; 106,38</t>
+          <t>-71,5; 105,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,49; 70,64</t>
+          <t>-81,16; 73,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -3,86</t>
+          <t>-100,0; 3,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 87,52</t>
+          <t>-48,25; 90,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,21; -8,65</t>
+          <t>-85,88; -8,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-99,1; -17,05</t>
+          <t>-99,03; -30,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,62</t>
+          <t>-0,34; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,0</t>
+          <t>-0,62; 2,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,84</t>
+          <t>0,49; 5,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,71</t>
+          <t>-0,34; 3,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,76</t>
+          <t>-2,32; 0,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,71</t>
+          <t>-1,55; 2,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,6</t>
+          <t>0,18; 2,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,01</t>
+          <t>-1,06; 1,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,46</t>
+          <t>0,25; 3,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 318,56</t>
+          <t>-25,7; 343,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 260,72</t>
+          <t>-40,14; 290,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,7; 712,98</t>
+          <t>4,95; 723,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 253,01</t>
+          <t>-12,87; 247,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,91; 60,48</t>
+          <t>-72,63; 87,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,82; 168,51</t>
+          <t>-51,21; 170,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 201,51</t>
+          <t>2,99; 197,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,77; 81,05</t>
+          <t>-47,86; 82,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 245,21</t>
+          <t>3,63; 253,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,31</t>
+          <t>-2,08; 2,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,34</t>
+          <t>-2,96; 1,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,67</t>
+          <t>-2,71; 1,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,97</t>
+          <t>1,06; 5,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,32</t>
+          <t>-2,23; 1,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,65</t>
+          <t>-2,01; 1,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,53</t>
+          <t>0,14; 3,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 1,01</t>
+          <t>-1,87; 1,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,03</t>
+          <t>-1,86; 1,14</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 79,66</t>
+          <t>-40,48; 84,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,14; 45,29</t>
+          <t>-56,24; 58,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,23; 55,76</t>
+          <t>-51,74; 65,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,39; 269,88</t>
+          <t>23,99; 261,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,01; 62,42</t>
+          <t>-53,58; 69,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,57; 75,63</t>
+          <t>-49,9; 71,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,44; 123,85</t>
+          <t>2,47; 118,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,46; 36,36</t>
+          <t>-41,47; 38,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 35,74</t>
+          <t>-42,47; 43,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,0</t>
+          <t>0,73; 5,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,74</t>
+          <t>0,76; 4,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,93</t>
+          <t>-1,04; 4,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 7,34</t>
+          <t>1,69; 7,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,04</t>
+          <t>-0,16; 5,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,62</t>
+          <t>-1,51; 2,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,46</t>
+          <t>1,79; 5,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,1</t>
+          <t>0,96; 4,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,68</t>
+          <t>-0,79; 2,69</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,5; 604,28</t>
+          <t>12,09; 601,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,89; 592,46</t>
+          <t>10,97; 634,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 438,15</t>
+          <t>-45,5; 442,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,91; 268,07</t>
+          <t>25,86; 258,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 189,05</t>
+          <t>-5,23; 169,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,24; 94,71</t>
+          <t>-30,85; 94,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>48,39; 268,86</t>
+          <t>44,9; 251,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,21; 200,46</t>
+          <t>26,17; 206,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 128,68</t>
+          <t>-20,9; 127,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,5</t>
+          <t>-1,87; 3,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,19</t>
+          <t>-1,59; 3,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,85</t>
+          <t>0,44; 5,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,16</t>
+          <t>0,97; 7,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,55</t>
+          <t>-1,13; 5,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 5,64</t>
+          <t>-0,04; 5,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,94</t>
+          <t>0,41; 4,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,6</t>
+          <t>-0,73; 3,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,0</t>
+          <t>1,03; 4,93</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 182,68</t>
+          <t>-42,37; 182,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 159,29</t>
+          <t>-38,26; 200,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,96; 291,98</t>
+          <t>9,35; 299,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,15; 215,08</t>
+          <t>11,82; 222,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 144,63</t>
+          <t>-19,28; 136,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 160,83</t>
+          <t>-1,7; 161,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,79; 146,78</t>
+          <t>7,61; 155,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 104,7</t>
+          <t>-12,54; 112,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,39; 157,55</t>
+          <t>19,09; 156,95</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 6,24</t>
+          <t>-1,91; 6,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,17</t>
+          <t>-5,49; 1,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,97</t>
+          <t>-2,84; 4,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,53; 12,66</t>
+          <t>2,65; 12,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 1,29</t>
+          <t>-6,5; 1,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 0,83</t>
+          <t>-9,78; 0,81</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,42</t>
+          <t>1,88; 8,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 0,39</t>
+          <t>-5,1; 0,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 1,6</t>
+          <t>-5,71; 1,24</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 145,46</t>
+          <t>-25,12; 150,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,05; 34,7</t>
+          <t>-68,71; 43,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 93,72</t>
+          <t>-32,24; 117,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23,13; 183,57</t>
+          <t>24,28; 200,84</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-59,73; 19,9</t>
+          <t>-59,63; 27,07</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-77,51; 11,5</t>
+          <t>-79,09; 10,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>21,18; 139,9</t>
+          <t>22,08; 144,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-55,72; 7,14</t>
+          <t>-56,76; 1,63</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-56,79; 23,78</t>
+          <t>-63,37; 17,9</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 9,73</t>
+          <t>-2,35; 9,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 4,18</t>
+          <t>-6,83; 3,98</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 8,79</t>
+          <t>-1,58; 8,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,54; 18,88</t>
+          <t>6,43; 18,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 8,14</t>
+          <t>-2,85; 8,21</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,93; 17,02</t>
+          <t>7,24; 16,78</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,42; 13,45</t>
+          <t>4,68; 13,93</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 5,16</t>
+          <t>-2,81; 5,05</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,05</t>
+          <t>5,22; 12,67</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 132,37</t>
+          <t>-20,06; 135,74</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-50,1; 66,73</t>
+          <t>-50,41; 60,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 138,71</t>
+          <t>-12,01; 132,93</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>37,88; 183,42</t>
+          <t>38,96; 185,33</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 79,86</t>
+          <t>-19,63; 76,86</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>40,42; 172,44</t>
+          <t>41,74; 162,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>31,26; 138,33</t>
+          <t>33,24; 137,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 53,7</t>
+          <t>-20,74; 52,19</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>32,64; 123,69</t>
+          <t>36,33; 135,0</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,63</t>
+          <t>0,48; 2,49</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,14</t>
+          <t>-0,73; 1,08</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,65</t>
+          <t>0,39; 2,75</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,74</t>
+          <t>3,2; 5,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,72</t>
+          <t>-0,39; 1,79</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,18</t>
+          <t>0,35; 3,05</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,81</t>
+          <t>2,15; 3,72</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,3; 1,19</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,59</t>
+          <t>0,85; 2,58</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>15,65; 97,16</t>
+          <t>12,65; 87,05</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 40,33</t>
+          <t>-18,86; 37,89</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>11,13; 98,63</t>
+          <t>12,19; 101,55</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>60,87; 133,53</t>
+          <t>59,61; 133,82</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 39,7</t>
+          <t>-7,65; 41,35</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>9,7; 72,29</t>
+          <t>7,59; 70,61</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>50,02; 104,39</t>
+          <t>47,49; 99,88</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 33,43</t>
+          <t>-6,76; 31,99</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>20,62; 70,13</t>
+          <t>21,51; 71,03</t>
         </is>
       </c>
     </row>
